--- a/training/data/絶対順序考察.xlsx
+++ b/training/data/絶対順序考察.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BB8D5-E72B-4FE0-A273-E578E46A76F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B8653-0A32-4725-B66D-504A73267B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4430" yWindow="5760" windowWidth="32600" windowHeight="15370" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
+    <workbookView xWindow="3620" yWindow="3390" windowWidth="32930" windowHeight="17090" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>you</t>
     <phoneticPr fontId="1"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gave</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>she</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -100,10 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M3-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Aux-3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,10 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>wh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>M3-8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -165,6 +153,14 @@
   </si>
   <si>
     <t>in the kitchen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wh-word</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,46 +528,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F35997-3EF2-4BE6-981D-19688D794996}">
-  <dimension ref="E7:M16"/>
+  <dimension ref="E7:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -589,12 +588,15 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
@@ -609,15 +611,15 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
@@ -632,15 +634,15 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -658,75 +660,78 @@
         <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
         <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
         <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/training/data/絶対順序考察.xlsx
+++ b/training/data/絶対順序考察.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B8653-0A32-4725-B66D-504A73267B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5DD71-DDC6-47CC-B59F-1157D6289457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="3390" windowWidth="32930" windowHeight="17090" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>you</t>
     <phoneticPr fontId="1"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>wh-word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gave</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,9 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F35997-3EF2-4BE6-981D-19688D794996}">
   <dimension ref="E7:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -668,69 +670,69 @@
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
         <v>13</v>
       </c>
     </row>

--- a/training/data/絶対順序考察.xlsx
+++ b/training/data/絶対順序考察.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5DD71-DDC6-47CC-B59F-1157D6289457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160C57B-A3E5-4059-85AD-5B99FD46BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="3390" windowWidth="32930" windowHeight="17090" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
+    <workbookView xWindow="2180" yWindow="2180" windowWidth="35380" windowHeight="18390" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>you</t>
     <phoneticPr fontId="1"/>
@@ -165,6 +165,22 @@
   </si>
   <si>
     <t>gave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O1_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O2_4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,9 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F35997-3EF2-4BE6-981D-19688D794996}">
-  <dimension ref="E7:O16"/>
+  <dimension ref="E7:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -736,6 +754,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/training/data/絶対順序考察.xlsx
+++ b/training/data/絶対順序考察.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160C57B-A3E5-4059-85AD-5B99FD46BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C431FA-F404-4B37-AFA0-EDBCF6BD08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="2180" windowWidth="35380" windowHeight="18390" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
+    <workbookView xWindow="2400" yWindow="2620" windowWidth="35380" windowHeight="18390" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M3-8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>at the store</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,10 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M2-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>wh-word</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,6 +173,14 @@
   </si>
   <si>
     <t>O2_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M1-1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
   <dimension ref="E7:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
@@ -582,10 +582,10 @@
         <v>19</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="5:15" x14ac:dyDescent="0.55000000000000004">
@@ -608,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.55000000000000004">
@@ -634,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="5:15" x14ac:dyDescent="0.55000000000000004">
@@ -657,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="5:15" x14ac:dyDescent="0.55000000000000004">
@@ -683,18 +683,18 @@
         <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -705,13 +705,13 @@
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
@@ -722,13 +722,13 @@
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
         <v>5</v>
@@ -739,13 +739,13 @@
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/training/data/絶対順序考察.xlsx
+++ b/training/data/絶対順序考察.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C431FA-F404-4B37-AFA0-EDBCF6BD08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD635B11-E7E8-4164-962C-DF71CA20AB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2620" windowWidth="35380" windowHeight="18390" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
+    <workbookView xWindow="2400" yWindow="2620" windowWidth="30560" windowHeight="15620" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>you</t>
     <phoneticPr fontId="1"/>
@@ -180,15 +180,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M1-1</t>
-    <phoneticPr fontId="1"/>
+    <t>M2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①What will you eat there?</t>
+  </si>
+  <si>
+    <t>②Will he eat sushi at the park?</t>
+  </si>
+  <si>
+    <t>③How will you eat those stuff?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +245,67 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,12 +322,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,40 +694,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F35997-3EF2-4BE6-981D-19688D794996}">
-  <dimension ref="E7:O17"/>
+  <dimension ref="E5:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -592,22 +774,24 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
@@ -618,22 +802,24 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -641,22 +827,24 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -664,108 +852,165 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="M11" s="16"/>
       <c r="O11" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F17" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="T21" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="T22" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="T23" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/training/data/絶対順序考察.xlsx
+++ b/training/data/絶対順序考察.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD635B11-E7E8-4164-962C-DF71CA20AB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62506A57-637A-4B9D-B6B8-168D563D9428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2620" windowWidth="30560" windowHeight="15620" xr2:uid="{1C274BEB-6454-4DFC-AE89-910D929BA47B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>you</t>
     <phoneticPr fontId="1"/>
@@ -223,6 +223,110 @@
   </si>
   <si>
     <t>③How will you eat those stuff?</t>
+  </si>
+  <si>
+    <t>she</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beautifully</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>we</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breakfast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>always</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>together</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quietly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on the mat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carefully</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>they</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>works</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actually</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>very hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>every morning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>he</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jogs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slowly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in the park</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -252,7 +356,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +411,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -322,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +488,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F35997-3EF2-4BE6-981D-19688D794996}">
-  <dimension ref="E5:T23"/>
+  <dimension ref="E5:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1013,8 +1129,235 @@
         <v>47</v>
       </c>
     </row>
+    <row r="24" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1">
+        <v>7</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1">
+        <v>6</v>
+      </c>
+      <c r="T24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>52</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" t="s">
+        <v>69</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>